--- a/practical/utils/empty_book.xlsx
+++ b/practical/utils/empty_book.xlsx
@@ -58,127 +58,6 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'range names'!$A$1:$F$1</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'range names'!$A$2:$F$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'range names'!$A$3:$F$3</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'range names'!$A$4:$F$4</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <crossAx val="10"/>
-      </valAx>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,161 +344,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00ffff00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>